--- a/zol项目进度表-0129.xlsx
+++ b/zol项目进度表-0129.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>项目大板块</t>
   </si>
@@ -73,7 +73,10 @@
     <t>2.3-</t>
   </si>
   <si>
-    <t>导航、banner、商品分类、商品列表、个人中心（user）</t>
+    <t xml:space="preserve"> 1. 商城概况
+ 2. 商品管理
+ 3. 订单管理
+ 4. 会员管理</t>
   </si>
   <si>
     <t>各个编辑页面</t>
@@ -86,6 +89,13 @@
  2. 可参考微博项目，或查文档使得更清楚 前端-后台-数据库 的交互逻辑</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1. 框架：react
+ 2. 后台：node -&gt; koa
+ 3. 数据库：mongoose
+ 4. 管理数据：redux
+ 5. 前端请求：fetch | axios</t>
+  </si>
+  <si>
     <t>react框架</t>
   </si>
   <si>
@@ -96,6 +106,15 @@
     <t>2.4-2.8</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1. 请求数据
+ 2. 业务逻辑
+ 3. 配置less
+    1. create-react-app创建的项目是看不到webpack相关的配置文件，所以需要先暴露出来，使用以下命令：
+      npm run eject
+    2. 安装less相关依赖
+      npm install less less-loader --save-dev</t>
+  </si>
+  <si>
     <t>测试</t>
   </si>
   <si>
@@ -121,6 +140,9 @@
   </si>
   <si>
     <t>内容分为：pop-ser | pop-prod | pop-reg</t>
+  </si>
+  <si>
+    <t>product-list</t>
   </si>
 </sst>
 </file>
@@ -1108,15 +1130,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" customWidth="1"/>
@@ -1187,16 +1209,17 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="2:2">
+    <row r="6" ht="46" customHeight="1" spans="2:5">
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" ht="70" customHeight="1" spans="1:3">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" ht="91" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1206,24 +1229,30 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" ht="75" customHeight="1" spans="1:3">
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="150" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>2.9</v>
@@ -1233,44 +1262,110 @@
     <row r="11" ht="24" customHeight="1"/>
     <row r="12" ht="24" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" ht="10" customHeight="1" spans="1:3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
